--- a/results/fitts_law_analysis.xlsx
+++ b/results/fitts_law_analysis.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Repos\fitts-law\fitts-law-project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC397B0-A8D3-410C-BE9D-2D0E73D03BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABC5F1D-3C2F-442F-BB96-940C99C79FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Configuration Metrics" sheetId="2" r:id="rId2"/>
-    <sheet name="Participant Summary" sheetId="3" r:id="rId3"/>
-    <sheet name="Regression Results" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -119,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="26">
   <si>
     <t>trial</t>
   </si>
@@ -181,76 +178,10 @@
     <t>right</t>
   </si>
   <si>
-    <t>time_ms_mean</t>
-  </si>
-  <si>
-    <t>errors_mean</t>
-  </si>
-  <si>
-    <t>distance_traveled_mean</t>
-  </si>
-  <si>
-    <t>time_ms_std</t>
-  </si>
-  <si>
-    <t>errors_std</t>
-  </si>
-  <si>
-    <t>distance_traveled_std</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>IP</t>
-  </si>
-  <si>
-    <t>time_ms_min</t>
-  </si>
-  <si>
-    <t>time_ms_max</t>
-  </si>
-  <si>
-    <t>errors_sum</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Slope (a)</t>
-  </si>
-  <si>
-    <t>Represents reciprocal of throughput (1/IP)</t>
-  </si>
-  <si>
-    <t>Intercept (b)</t>
-  </si>
-  <si>
-    <t>Represents fixed time overhead</t>
-  </si>
-  <si>
-    <t>R-squared</t>
-  </si>
-  <si>
-    <t>Coefficient of determination</t>
-  </si>
-  <si>
-    <t>p-value</t>
-  </si>
-  <si>
-    <t>Significance of regression</t>
-  </si>
-  <si>
-    <t>Standard Error</t>
-  </si>
-  <si>
-    <t>Standard error of the estimate</t>
   </si>
   <si>
     <t>Distance</t>
@@ -514,7 +445,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Fitts'' Law Calculation'!$C$2:$C$10</c:f>
+              <c:f>'Raw Data'!$N$2:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -550,7 +481,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Fitts'' Law Calculation'!$D$2:$D$10</c:f>
+              <c:f>'Raw Data'!$L$2:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1370,15 +1301,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>302730</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>159855</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1785,7 +1716,7 @@
   <dimension ref="A1:O1776"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,22 +1751,22 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1870,11 +1801,11 @@
         <v>20</v>
       </c>
       <c r="L2" cm="1">
-        <f t="array" ref="L2">AVERAGE(_xlfn._xlws.FILTER(E2:E1775,(C2:C1775=J2)*(B2:B1775=K2)))</f>
+        <f t="array" ref="L2">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J2)*(B2:B1776=K2)))</f>
         <v>851.91482305526733</v>
       </c>
       <c r="M2" cm="1">
-        <f t="array" ref="M2">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1775,(C2:C1775=J2)*(B2:B1775=K2)))</f>
+        <f t="array" ref="M2">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J2)*(B2:B1776=K2)))</f>
         <v>267.23409139371734</v>
       </c>
       <c r="N2">
@@ -1926,11 +1857,11 @@
         <v>212.82711981271592</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N10" si="0">CEILING(LOG((J3/K3+1),2),1)</f>
+        <f>CEILING(LOG((J3/K3+1),2),1)</f>
         <v>2</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O10" si="1">N3/(L3/1000)</f>
+        <f>N3/(L3/1000)</f>
         <v>2.839290602247607</v>
       </c>
     </row>
@@ -1966,19 +1897,19 @@
         <v>60</v>
       </c>
       <c r="L4" cm="1">
-        <f t="array" ref="L4">AVERAGE(_xlfn._xlws.FILTER(E2:E1777,(C2:C1777=J4)*(B2:B1777=K4)))</f>
+        <f t="array" ref="L4">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J4)*(B2:B1776=K4)))</f>
         <v>632.20503003464137</v>
       </c>
       <c r="M4" cm="1">
-        <f t="array" ref="M4">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1777,(C2:C1777=J4)*(B2:B1777=K4)))</f>
+        <f t="array" ref="M4">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J4)*(B2:B1776=K4)))</f>
         <v>220.45294035191944</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f>CEILING(LOG((J4/K4+1),2),1)</f>
         <v>2</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" si="1"/>
+        <f>N4/(L4/1000)</f>
         <v>3.1635306664523233</v>
       </c>
     </row>
@@ -2014,19 +1945,19 @@
         <v>20</v>
       </c>
       <c r="L5" cm="1">
-        <f t="array" ref="L5">AVERAGE(_xlfn._xlws.FILTER(E2:E1778,(C2:C1778=J5)*(B2:B1778=K5)))</f>
+        <f t="array" ref="L5">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J5)*(B2:B1776=K5)))</f>
         <v>958.815151331376</v>
       </c>
       <c r="M5" cm="1">
-        <f t="array" ref="M5">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1778,(C2:C1778=J5)*(B2:B1778=K5)))</f>
+        <f t="array" ref="M5">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J5)*(B2:B1776=K5)))</f>
         <v>313.17976052236418</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f>CEILING(LOG((J5/K5+1),2),1)</f>
         <v>4</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="1"/>
+        <f>N5/(L5/1000)</f>
         <v>4.1718155939085291</v>
       </c>
     </row>
@@ -2062,19 +1993,19 @@
         <v>40</v>
       </c>
       <c r="L6" cm="1">
-        <f t="array" ref="L6">AVERAGE(_xlfn._xlws.FILTER(E2:E1779,(C2:C1779=J6)*(B2:B1779=K6)))</f>
+        <f t="array" ref="L6">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J6)*(B2:B1776=K6)))</f>
         <v>782.81694680602106</v>
       </c>
       <c r="M6" cm="1">
-        <f t="array" ref="M6">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1779,(C2:C1779=J6)*(B2:B1779=K6)))</f>
+        <f t="array" ref="M6">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J6)*(B2:B1776=K6)))</f>
         <v>210.83662394923749</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f>CEILING(LOG((J6/K6+1),2),1)</f>
         <v>3</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="1"/>
+        <f>N6/(L6/1000)</f>
         <v>3.8323135596902045</v>
       </c>
     </row>
@@ -2110,19 +2041,19 @@
         <v>60</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7">AVERAGE(_xlfn._xlws.FILTER(E2:E1780,(C2:C1780=J7)*(B2:B1780=K7)))</f>
+        <f t="array" ref="L7">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J7)*(B2:B1776=K7)))</f>
         <v>683.70663397239912</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1780,(C2:C1780=J7)*(B2:B1780=K7)))</f>
+        <f t="array" ref="M7">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J7)*(B2:B1776=K7)))</f>
         <v>181.5170400660086</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f>CEILING(LOG((J7/K7+1),2),1)</f>
         <v>3</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="1"/>
+        <f>N7/(L7/1000)</f>
         <v>4.3878468497076311</v>
       </c>
     </row>
@@ -2158,19 +2089,19 @@
         <v>20</v>
       </c>
       <c r="L8" cm="1">
-        <f t="array" ref="L8">AVERAGE(_xlfn._xlws.FILTER(E2:E1781,(C2:C1781=J8)*(B2:B1781=K8)))</f>
+        <f t="array" ref="L8">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J8)*(B2:B1776=K8)))</f>
         <v>983.10166597366333</v>
       </c>
       <c r="M8" cm="1">
-        <f t="array" ref="M8">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1781,(C2:C1781=J8)*(B2:B1781=K8)))</f>
+        <f t="array" ref="M8">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J8)*(B2:B1776=K8)))</f>
         <v>284.33680263431438</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f>CEILING(LOG((J8/K8+1),2),1)</f>
         <v>4</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="1"/>
+        <f>N8/(L8/1000)</f>
         <v>4.0687551841735541</v>
       </c>
     </row>
@@ -2206,19 +2137,19 @@
         <v>40</v>
       </c>
       <c r="L9" cm="1">
-        <f t="array" ref="L9">AVERAGE(_xlfn._xlws.FILTER(E2:E1782,(C2:C1782=J9)*(B2:B1782=K9)))</f>
+        <f t="array" ref="L9">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J9)*(B2:B1776=K9)))</f>
         <v>848.32839050678297</v>
       </c>
       <c r="M9" cm="1">
-        <f t="array" ref="M9">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1782,(C2:C1782=J9)*(B2:B1782=K9)))</f>
+        <f t="array" ref="M9">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J9)*(B2:B1776=K9)))</f>
         <v>235.41020922753157</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f>CEILING(LOG((J9/K9+1),2),1)</f>
         <v>4</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="1"/>
+        <f>N9/(L9/1000)</f>
         <v>4.715155174295699</v>
       </c>
     </row>
@@ -2254,19 +2185,19 @@
         <v>60</v>
       </c>
       <c r="L10" cm="1">
-        <f t="array" ref="L10">AVERAGE(_xlfn._xlws.FILTER(E2:E1783,(C2:C1783=J10)*(B2:B1783=K10)))</f>
+        <f t="array" ref="L10">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J10)*(B2:B1776=K10)))</f>
         <v>740.79966304278128</v>
       </c>
       <c r="M10" cm="1">
-        <f t="array" ref="M10">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1783,(C2:C1783=J10)*(B2:B1783=K10)))</f>
+        <f t="array" ref="M10">_xlfn.STDEV.S(_xlfn._xlws.FILTER(E2:E1776,(C2:C1776=J10)*(B2:B1776=K10)))</f>
         <v>206.26055091075233</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f>CEILING(LOG((J10/K10+1),2),1)</f>
         <v>3</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="1"/>
+        <f>N10/(L10/1000)</f>
         <v>4.0496778679376231</v>
       </c>
     </row>
@@ -48191,1093 +48122,4 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>842.52290093168915</v>
-      </c>
-      <c r="E2">
-        <v>0.30612244897959179</v>
-      </c>
-      <c r="F2">
-        <v>150.72355970347891</v>
-      </c>
-      <c r="G2">
-        <v>267.54490680185319</v>
-      </c>
-      <c r="H2">
-        <v>0.84228656956171621</v>
-      </c>
-      <c r="I2">
-        <v>67.667163035991905</v>
-      </c>
-      <c r="J2">
-        <v>2.5849625007211561</v>
-      </c>
-      <c r="K2">
-        <v>3.0681213506037892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>861.30674517884552</v>
-      </c>
-      <c r="E3">
-        <v>0.18367346938775511</v>
-      </c>
-      <c r="F3">
-        <v>183.7303138325907</v>
-      </c>
-      <c r="G3">
-        <v>267.96610670172203</v>
-      </c>
-      <c r="H3">
-        <v>0.50455530641052071</v>
-      </c>
-      <c r="I3">
-        <v>93.760203929446689</v>
-      </c>
-      <c r="J3">
-        <v>2.5849625007211561</v>
-      </c>
-      <c r="K3">
-        <v>3.001210097552879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>953.78286254649265</v>
-      </c>
-      <c r="E4">
-        <v>0.26530612244897961</v>
-      </c>
-      <c r="F4">
-        <v>266.12961255425859</v>
-      </c>
-      <c r="G4">
-        <v>298.21741511062987</v>
-      </c>
-      <c r="H4">
-        <v>0.73989439770547227</v>
-      </c>
-      <c r="I4">
-        <v>82.452378021323938</v>
-      </c>
-      <c r="J4">
-        <v>3.4594316186372969</v>
-      </c>
-      <c r="K4">
-        <v>3.627064140574936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>963.84744011625946</v>
-      </c>
-      <c r="E5">
-        <v>0.16326530612244899</v>
-      </c>
-      <c r="F5">
-        <v>284.13040596390522</v>
-      </c>
-      <c r="G5">
-        <v>328.92169014910581</v>
-      </c>
-      <c r="H5">
-        <v>0.44707243701503802</v>
-      </c>
-      <c r="I5">
-        <v>90.38097241140899</v>
-      </c>
-      <c r="J5">
-        <v>3.4594316186372969</v>
-      </c>
-      <c r="K5">
-        <v>3.589190025985876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>300</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>978.60845254392041</v>
-      </c>
-      <c r="E6">
-        <v>0.1020408163265306</v>
-      </c>
-      <c r="F6">
-        <v>361.94589657771519</v>
-      </c>
-      <c r="G6">
-        <v>268.35306194984503</v>
-      </c>
-      <c r="H6">
-        <v>0.33643969507171018</v>
-      </c>
-      <c r="I6">
-        <v>77.521343548904113</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>4.0874365938715194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>300</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>987.59487940340625</v>
-      </c>
-      <c r="E7">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="F7">
-        <v>392.07901101026818</v>
-      </c>
-      <c r="G7">
-        <v>300.78921711846812</v>
-      </c>
-      <c r="H7">
-        <v>0.64616234275596429</v>
-      </c>
-      <c r="I7">
-        <v>101.1991456144619</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>4.0502437623171446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>719.14443434501186</v>
-      </c>
-      <c r="E8">
-        <v>0.14285714285714279</v>
-      </c>
-      <c r="F8">
-        <v>160.26564351535811</v>
-      </c>
-      <c r="G8">
-        <v>246.25711761393919</v>
-      </c>
-      <c r="H8">
-        <v>0.40613846605344772</v>
-      </c>
-      <c r="I8">
-        <v>71.08295633887046</v>
-      </c>
-      <c r="J8">
-        <v>1.807354922057604</v>
-      </c>
-      <c r="K8">
-        <v>2.5132015708412201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>40</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>689.80709230056914</v>
-      </c>
-      <c r="E9">
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="F9">
-        <v>168.26271934739751</v>
-      </c>
-      <c r="G9">
-        <v>173.59284348399649</v>
-      </c>
-      <c r="H9">
-        <v>0.32232918561015211</v>
-      </c>
-      <c r="I9">
-        <v>100.86808588838559</v>
-      </c>
-      <c r="J9">
-        <v>1.807354922057604</v>
-      </c>
-      <c r="K9">
-        <v>2.6200874740645408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>200</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>776.55786275863647</v>
-      </c>
-      <c r="E10">
-        <v>0.1</v>
-      </c>
-      <c r="F10">
-        <v>247.31507639191051</v>
-      </c>
-      <c r="G10">
-        <v>201.14406645854069</v>
-      </c>
-      <c r="H10">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I10">
-        <v>76.115761971286375</v>
-      </c>
-      <c r="J10">
-        <v>2.5849625007211561</v>
-      </c>
-      <c r="K10">
-        <v>3.328744224594367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>789.13925392459134</v>
-      </c>
-      <c r="E11">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F11">
-        <v>277.66053548083471</v>
-      </c>
-      <c r="G11">
-        <v>221.0412009224975</v>
-      </c>
-      <c r="H11">
-        <v>0.42591770999995993</v>
-      </c>
-      <c r="I11">
-        <v>119.3715649632214</v>
-      </c>
-      <c r="J11">
-        <v>2.5849625007211561</v>
-      </c>
-      <c r="K11">
-        <v>3.2756734478299951</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>40</v>
-      </c>
-      <c r="B12">
-        <v>300</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>851.10062541383684</v>
-      </c>
-      <c r="E12">
-        <v>0.2121212121212121</v>
-      </c>
-      <c r="F12">
-        <v>354.6848667939845</v>
-      </c>
-      <c r="G12">
-        <v>240.1816142442176</v>
-      </c>
-      <c r="H12">
-        <v>0.70381942362801175</v>
-      </c>
-      <c r="I12">
-        <v>87.464047819367394</v>
-      </c>
-      <c r="J12">
-        <v>3.08746284125034</v>
-      </c>
-      <c r="K12">
-        <v>3.6276119991676659</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>300</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>845.55615559972898</v>
-      </c>
-      <c r="E13">
-        <v>7.0707070707070704E-2</v>
-      </c>
-      <c r="F13">
-        <v>359.55689507011539</v>
-      </c>
-      <c r="G13">
-        <v>231.72977244193561</v>
-      </c>
-      <c r="H13">
-        <v>0.25763941153881398</v>
-      </c>
-      <c r="I13">
-        <v>77.329745847528159</v>
-      </c>
-      <c r="J13">
-        <v>3.08746284125034</v>
-      </c>
-      <c r="K13">
-        <v>3.6513989293360289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>60</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>589.6796505860608</v>
-      </c>
-      <c r="E14">
-        <v>6.0606060606060608E-2</v>
-      </c>
-      <c r="F14">
-        <v>135.84001689713901</v>
-      </c>
-      <c r="G14">
-        <v>184.4383452258536</v>
-      </c>
-      <c r="H14">
-        <v>0.27914526311954119</v>
-      </c>
-      <c r="I14">
-        <v>60.280938546985389</v>
-      </c>
-      <c r="J14">
-        <v>1.4150374992788439</v>
-      </c>
-      <c r="K14">
-        <v>2.399671580785415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>60</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>675.16434192657471</v>
-      </c>
-      <c r="E15">
-        <v>0.16326530612244899</v>
-      </c>
-      <c r="F15">
-        <v>164.16830788914601</v>
-      </c>
-      <c r="G15">
-        <v>245.1991584604616</v>
-      </c>
-      <c r="H15">
-        <v>0.42338541216902381</v>
-      </c>
-      <c r="I15">
-        <v>90.270512572809537</v>
-      </c>
-      <c r="J15">
-        <v>1.4150374992788439</v>
-      </c>
-      <c r="K15">
-        <v>2.0958415772388821</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>60</v>
-      </c>
-      <c r="B16">
-        <v>200</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>677.74552471783693</v>
-      </c>
-      <c r="E16">
-        <v>9.1836734693877556E-2</v>
-      </c>
-      <c r="F16">
-        <v>249.31470558243731</v>
-      </c>
-      <c r="G16">
-        <v>172.1793961334491</v>
-      </c>
-      <c r="H16">
-        <v>0.32385355904917201</v>
-      </c>
-      <c r="I16">
-        <v>83.810453422462615</v>
-      </c>
-      <c r="J16">
-        <v>2.1154772174199361</v>
-      </c>
-      <c r="K16">
-        <v>3.1213444283540852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>60</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>689.54852104187012</v>
-      </c>
-      <c r="E17">
-        <v>0.06</v>
-      </c>
-      <c r="F17">
-        <v>258.34745094262883</v>
-      </c>
-      <c r="G17">
-        <v>190.91246791864771</v>
-      </c>
-      <c r="H17">
-        <v>0.2777979790634143</v>
-      </c>
-      <c r="I17">
-        <v>72.819916144015679</v>
-      </c>
-      <c r="J17">
-        <v>2.1154772174199361</v>
-      </c>
-      <c r="K17">
-        <v>3.0679164016240161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>60</v>
-      </c>
-      <c r="B18">
-        <v>300</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>723.51602833680431</v>
-      </c>
-      <c r="E18">
-        <v>6.0606060606060608E-2</v>
-      </c>
-      <c r="F18">
-        <v>334.72428081513618</v>
-      </c>
-      <c r="G18">
-        <v>201.33191099037839</v>
-      </c>
-      <c r="H18">
-        <v>0.27914526311954119</v>
-      </c>
-      <c r="I18">
-        <v>68.571548381124089</v>
-      </c>
-      <c r="J18">
-        <v>2.5849625007211561</v>
-      </c>
-      <c r="K18">
-        <v>3.5727784865573549</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>60</v>
-      </c>
-      <c r="B19">
-        <v>300</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>758.08329774875835</v>
-      </c>
-      <c r="E19">
-        <v>0.14141414141414141</v>
-      </c>
-      <c r="F19">
-        <v>358.00092253402897</v>
-      </c>
-      <c r="G19">
-        <v>210.6724076691408</v>
-      </c>
-      <c r="H19">
-        <v>0.45198205242724759</v>
-      </c>
-      <c r="I19">
-        <v>74.535998888448503</v>
-      </c>
-      <c r="J19">
-        <v>2.5849625007211561</v>
-      </c>
-      <c r="K19">
-        <v>3.409866050864844</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>915.12936187190053</v>
-      </c>
-      <c r="C2">
-        <v>253.6901844317976</v>
-      </c>
-      <c r="D2">
-        <v>502.70915031433111</v>
-      </c>
-      <c r="E2">
-        <v>1852.3321151733401</v>
-      </c>
-      <c r="F2">
-        <v>0.106145251396648</v>
-      </c>
-      <c r="G2">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>259.97669763865349</v>
-      </c>
-      <c r="I2">
-        <v>111.26337071839021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>933.5934698244946</v>
-      </c>
-      <c r="C3">
-        <v>267.00526122959911</v>
-      </c>
-      <c r="D3">
-        <v>496.03652954101563</v>
-      </c>
-      <c r="E3">
-        <v>1977.091789245605</v>
-      </c>
-      <c r="F3">
-        <v>7.909604519774012E-2</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>257.05137142600438</v>
-      </c>
-      <c r="I3">
-        <v>116.90832885121431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>875.75537167238383</v>
-      </c>
-      <c r="C4">
-        <v>265.37892287735542</v>
-      </c>
-      <c r="D4">
-        <v>477.7379035949707</v>
-      </c>
-      <c r="E4">
-        <v>1959.5539569854741</v>
-      </c>
-      <c r="F4">
-        <v>0.1685393258426966</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>242.44777517680819</v>
-      </c>
-      <c r="I4">
-        <v>103.9400334123835</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>659.84989404678345</v>
-      </c>
-      <c r="C5">
-        <v>152.5457186204419</v>
-      </c>
-      <c r="D5">
-        <v>370.6820011138916</v>
-      </c>
-      <c r="E5">
-        <v>1642.594575881958</v>
-      </c>
-      <c r="F5">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>293.02728617670073</v>
-      </c>
-      <c r="I5">
-        <v>122.7229388360271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>846.44666499337234</v>
-      </c>
-      <c r="C6">
-        <v>241.84691377182901</v>
-      </c>
-      <c r="D6">
-        <v>445.64342498779303</v>
-      </c>
-      <c r="E6">
-        <v>2068.723201751709</v>
-      </c>
-      <c r="F6">
-        <v>0.1129943502824859</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>280.21733384521218</v>
-      </c>
-      <c r="I6">
-        <v>130.44290087032269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>875.49812081216396</v>
-      </c>
-      <c r="C7">
-        <v>244.6016757074259</v>
-      </c>
-      <c r="D7">
-        <v>462.36586570739752</v>
-      </c>
-      <c r="E7">
-        <v>1875.5836486816411</v>
-      </c>
-      <c r="F7">
-        <v>9.7701149425287362E-2</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
-      <c r="H7">
-        <v>256.87551706090238</v>
-      </c>
-      <c r="I7">
-        <v>105.4973601701883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>869.52292503312572</v>
-      </c>
-      <c r="C8">
-        <v>201.3272854728643</v>
-      </c>
-      <c r="D8">
-        <v>502.92515754699701</v>
-      </c>
-      <c r="E8">
-        <v>1623.7947940826421</v>
-      </c>
-      <c r="F8">
-        <v>2.9069767441860461E-2</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>261.0642790168888</v>
-      </c>
-      <c r="I8">
-        <v>119.7917041158429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>875.26121219443212</v>
-      </c>
-      <c r="C9">
-        <v>253.1677535635456</v>
-      </c>
-      <c r="D9">
-        <v>451.59578323364258</v>
-      </c>
-      <c r="E9">
-        <v>1980.145454406739</v>
-      </c>
-      <c r="F9">
-        <v>0.13966480446927371</v>
-      </c>
-      <c r="G9">
-        <v>25</v>
-      </c>
-      <c r="H9">
-        <v>248.87231183900849</v>
-      </c>
-      <c r="I9">
-        <v>108.3109562393211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>552.36459444355035</v>
-      </c>
-      <c r="C10">
-        <v>155.4382700510659</v>
-      </c>
-      <c r="D10">
-        <v>313.63368034362799</v>
-      </c>
-      <c r="E10">
-        <v>1223.1318950653081</v>
-      </c>
-      <c r="F10">
-        <v>0.18994413407821231</v>
-      </c>
-      <c r="G10">
-        <v>34</v>
-      </c>
-      <c r="H10">
-        <v>250.62624250141459</v>
-      </c>
-      <c r="I10">
-        <v>121.4335632698769</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>587.39976353115503</v>
-      </c>
-      <c r="C11">
-        <v>221.15006578365299</v>
-      </c>
-      <c r="D11">
-        <v>311.04278564453119</v>
-      </c>
-      <c r="E11">
-        <v>1746.6082572937009</v>
-      </c>
-      <c r="F11">
-        <v>0.42222222222222222</v>
-      </c>
-      <c r="G11">
-        <v>76</v>
-      </c>
-      <c r="H11">
-        <v>265.17596972220252</v>
-      </c>
-      <c r="I11">
-        <v>129.38156551853459</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>143.8684191837184</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>420.59485876093498</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>0.89015184536353076</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>4.3830356656795113E-9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>12.634841982905501</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/results/fitts_law_analysis.xlsx
+++ b/results/fitts_law_analysis.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Repos\fitts-law\fitts-law-project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABC5F1D-3C2F-442F-BB96-940C99C79FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1030A6FA-B9CD-45DE-BC25-1B7163045E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="33">
   <si>
     <t>trial</t>
   </si>
@@ -194,6 +194,27 @@
   </si>
   <si>
     <t>Standard Dev</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Mean Error</t>
+  </si>
+  <si>
+    <t>Mean Distance Traveled</t>
+  </si>
+  <si>
+    <t>Mean Completion Time</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
   </si>
 </sst>
 </file>
@@ -1716,13 +1737,15 @@
   <dimension ref="A1:O1776"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2357,7 +2380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>105</v>
       </c>
@@ -2383,7 +2406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>155</v>
       </c>
@@ -2409,7 +2432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>161</v>
       </c>
@@ -2435,7 +2458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>169</v>
       </c>
@@ -2461,7 +2484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>175</v>
       </c>
@@ -2487,7 +2510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2513,7 +2536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>39</v>
       </c>
@@ -2539,7 +2562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>60</v>
       </c>
@@ -2565,7 +2588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>80</v>
       </c>
@@ -2591,7 +2614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>105</v>
       </c>
@@ -2617,7 +2640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>109</v>
       </c>
@@ -2643,7 +2666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>135</v>
       </c>
@@ -2668,8 +2691,20 @@
       <c r="H28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>136</v>
       </c>
@@ -2694,8 +2729,23 @@
       <c r="H29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(H2:H1776=J29)))</f>
+        <v>915.12936187190053</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J29)))</f>
+        <v>0.10614525139664804</v>
+      </c>
+      <c r="M29" cm="1">
+        <f t="array" ref="M29">AVERAGE(_xlfn._xlws.FILTER(F2:F1776,(H2:H1776=J29)))</f>
+        <v>259.97669763865349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>147</v>
       </c>
@@ -2720,8 +2770,23 @@
       <c r="H30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(H2:H1776=J30)))</f>
+        <v>933.5934698244946</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J30)))</f>
+        <v>7.909604519774012E-2</v>
+      </c>
+      <c r="M30" cm="1">
+        <f t="array" ref="M30">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J30)))</f>
+        <v>7.909604519774012E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>150</v>
       </c>
@@ -2746,8 +2811,23 @@
       <c r="H31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" cm="1">
+        <f t="array" ref="K31">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(H2:H1776=J31)))</f>
+        <v>875.75537167238383</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J31)))</f>
+        <v>0.16853932584269662</v>
+      </c>
+      <c r="M31" cm="1">
+        <f t="array" ref="M31">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J31)))</f>
+        <v>0.16853932584269662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -2772,8 +2852,23 @@
       <c r="H32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" cm="1">
+        <f t="array" ref="K32">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(H2:H1776=J32)))</f>
+        <v>659.84989404678345</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J32)))</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="M32" cm="1">
+        <f t="array" ref="M32">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J32)))</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -2798,8 +2893,23 @@
       <c r="H33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" ref="K33">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(H2:H1776=J33)))</f>
+        <v>846.44666499337234</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J33)))</f>
+        <v>0.11299435028248588</v>
+      </c>
+      <c r="M33" cm="1">
+        <f t="array" ref="M33">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J33)))</f>
+        <v>0.11299435028248588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18</v>
       </c>
@@ -2824,8 +2934,23 @@
       <c r="H34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" cm="1">
+        <f t="array" ref="K34">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(H2:H1776=J34)))</f>
+        <v>875.49812081216396</v>
+      </c>
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J34)))</f>
+        <v>9.7701149425287362E-2</v>
+      </c>
+      <c r="M34" cm="1">
+        <f t="array" ref="M34">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J34)))</f>
+        <v>9.7701149425287362E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
@@ -2850,8 +2975,23 @@
       <c r="H35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" cm="1">
+        <f t="array" ref="K35">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(H2:H1776=J35)))</f>
+        <v>869.52292503312572</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J35)))</f>
+        <v>2.9069767441860465E-2</v>
+      </c>
+      <c r="M35" cm="1">
+        <f t="array" ref="M35">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J35)))</f>
+        <v>2.9069767441860465E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>61</v>
       </c>
@@ -2876,8 +3016,23 @@
       <c r="H36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" cm="1">
+        <f t="array" ref="K36">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(H2:H1776=J36)))</f>
+        <v>875.26121219443212</v>
+      </c>
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J36)))</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="M36" cm="1">
+        <f t="array" ref="M36">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J36)))</f>
+        <v>0.13966480446927373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>88</v>
       </c>
@@ -2902,8 +3057,23 @@
       <c r="H37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" cm="1">
+        <f t="array" ref="K37">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(H2:H1776=J37)))</f>
+        <v>552.36459444355035</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J37)))</f>
+        <v>0.18994413407821228</v>
+      </c>
+      <c r="M37" cm="1">
+        <f t="array" ref="M37">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J37)))</f>
+        <v>0.18994413407821228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>103</v>
       </c>
@@ -2928,8 +3098,23 @@
       <c r="H38" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" cm="1">
+        <f t="array" ref="K38">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(H2:H1776=J38)))</f>
+        <v>587.39976353115503</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J38)))</f>
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="M38" cm="1">
+        <f t="array" ref="M38">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J38)))</f>
+        <v>0.42222222222222222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>149</v>
       </c>
@@ -2955,7 +3140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>166</v>
       </c>
@@ -2980,8 +3165,23 @@
       <c r="H40" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40">
+        <f>AVERAGE(K29:K38)</f>
+        <v>799.08213784233612</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ref="L40:M40" si="0">AVERAGE(L29:L38)</f>
+        <v>0.14009326059119825</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>26.127148499316871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>171</v>
       </c>
@@ -3006,8 +3206,23 @@
       <c r="H41" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41">
+        <f>MAX(K29:K38)</f>
+        <v>933.5934698244946</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ref="L41:M41" si="1">MAX(L29:L38)</f>
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>259.97669763865349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -3032,8 +3247,23 @@
       <c r="H42" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42">
+        <f>MIN(K29:K38)</f>
+        <v>552.36459444355035</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:M42" si="2">MIN(L29:L38)</f>
+        <v>2.9069767441860465E-2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>2.9069767441860465E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>30</v>
       </c>
@@ -3059,7 +3289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>35</v>
       </c>
@@ -3085,7 +3315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>52</v>
       </c>
@@ -3111,7 +3341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>53</v>
       </c>
@@ -3137,7 +3367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>77</v>
       </c>
@@ -3163,7 +3393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>90</v>
       </c>
@@ -48119,7 +48349,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/results/fitts_law_analysis.xlsx
+++ b/results/fitts_law_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Repos\fitts-law\fitts-law-project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1030A6FA-B9CD-45DE-BC25-1B7163045E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6730F67-699C-49FD-A137-AE53357CA4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3584" uniqueCount="34">
   <si>
     <t>trial</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>Average Complete Time</t>
   </si>
 </sst>
 </file>
@@ -1734,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1776"/>
+  <dimension ref="A1:P1776"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,6 +1749,7 @@
     <col min="11" max="11" width="21.85546875" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" customWidth="1"/>
     <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2380,7 +2384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>105</v>
       </c>
@@ -2406,7 +2410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>155</v>
       </c>
@@ -2432,7 +2436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>161</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>169</v>
       </c>
@@ -2484,7 +2488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>175</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2536,7 +2540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>39</v>
       </c>
@@ -2562,7 +2566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>60</v>
       </c>
@@ -2588,7 +2592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>80</v>
       </c>
@@ -2614,7 +2618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>105</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>109</v>
       </c>
@@ -2666,7 +2670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>135</v>
       </c>
@@ -2703,8 +2707,11 @@
       <c r="M28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>136</v>
       </c>
@@ -2744,8 +2751,15 @@
         <f t="array" ref="M29">AVERAGE(_xlfn._xlws.FILTER(F2:F1776,(H2:H1776=J29)))</f>
         <v>259.97669763865349</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" cm="1">
+        <f t="array" ref="P29">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(D2:D1776=O29)))</f>
+        <v>790.03148767026198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>147</v>
       </c>
@@ -2782,11 +2796,18 @@
         <v>7.909604519774012E-2</v>
       </c>
       <c r="M30" cm="1">
-        <f t="array" ref="M30">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J30)))</f>
-        <v>7.909604519774012E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="array" ref="M30">AVERAGE(_xlfn._xlws.FILTER(F2:F1776,(H2:H1776=J30)))</f>
+        <v>257.05137142600432</v>
+      </c>
+      <c r="O30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" cm="1">
+        <f t="array" ref="P30">AVERAGE(_xlfn._xlws.FILTER(E2:E1776,(D2:D1776=O30)))</f>
+        <v>806.2459010261673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>150</v>
       </c>
@@ -2823,11 +2844,11 @@
         <v>0.16853932584269662</v>
       </c>
       <c r="M31" cm="1">
-        <f t="array" ref="M31">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J31)))</f>
-        <v>0.16853932584269662</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="array" ref="M31">AVERAGE(_xlfn._xlws.FILTER(F2:F1776,(H2:H1776=J31)))</f>
+        <v>242.44777517680828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -2864,8 +2885,8 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="M32" cm="1">
-        <f t="array" ref="M32">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J32)))</f>
-        <v>5.5555555555555552E-2</v>
+        <f t="array" ref="M32">AVERAGE(_xlfn._xlws.FILTER(F2:F1776,(H2:H1776=J32)))</f>
+        <v>293.02728617670073</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2905,8 +2926,8 @@
         <v>0.11299435028248588</v>
       </c>
       <c r="M33" cm="1">
-        <f t="array" ref="M33">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J33)))</f>
-        <v>0.11299435028248588</v>
+        <f t="array" ref="M33">AVERAGE(_xlfn._xlws.FILTER(F2:F1776,(H2:H1776=J33)))</f>
+        <v>280.21733384521229</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2946,8 +2967,8 @@
         <v>9.7701149425287362E-2</v>
       </c>
       <c r="M34" cm="1">
-        <f t="array" ref="M34">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J34)))</f>
-        <v>9.7701149425287362E-2</v>
+        <f t="array" ref="M34">AVERAGE(_xlfn._xlws.FILTER(F2:F1776,(H2:H1776=J34)))</f>
+        <v>256.87551706090244</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2987,8 +3008,8 @@
         <v>2.9069767441860465E-2</v>
       </c>
       <c r="M35" cm="1">
-        <f t="array" ref="M35">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J35)))</f>
-        <v>2.9069767441860465E-2</v>
+        <f t="array" ref="M35">AVERAGE(_xlfn._xlws.FILTER(F2:F1776,(H2:H1776=J35)))</f>
+        <v>261.06427901688858</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -3028,8 +3049,8 @@
         <v>0.13966480446927373</v>
       </c>
       <c r="M36" cm="1">
-        <f t="array" ref="M36">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J36)))</f>
-        <v>0.13966480446927373</v>
+        <f t="array" ref="M36">AVERAGE(_xlfn._xlws.FILTER(F2:F1776,(H2:H1776=J36)))</f>
+        <v>248.87231183900846</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3069,8 +3090,8 @@
         <v>0.18994413407821228</v>
       </c>
       <c r="M37" cm="1">
-        <f t="array" ref="M37">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J37)))</f>
-        <v>0.18994413407821228</v>
+        <f t="array" ref="M37">AVERAGE(_xlfn._xlws.FILTER(F2:F1776,(H2:H1776=J37)))</f>
+        <v>250.62624250141457</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -3110,8 +3131,8 @@
         <v>0.42222222222222222</v>
       </c>
       <c r="M38" cm="1">
-        <f t="array" ref="M38">AVERAGE(_xlfn._xlws.FILTER(G2:G1776,(H2:H1776=J38)))</f>
-        <v>0.42222222222222222</v>
+        <f t="array" ref="M38">AVERAGE(_xlfn._xlws.FILTER(F2:F1776,(H2:H1776=J38)))</f>
+        <v>265.17596972220269</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -3178,7 +3199,7 @@
       </c>
       <c r="M40">
         <f t="shared" si="0"/>
-        <v>26.127148499316871</v>
+        <v>261.53347844037955</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -3219,7 +3240,7 @@
       </c>
       <c r="M41">
         <f t="shared" si="1"/>
-        <v>259.97669763865349</v>
+        <v>293.02728617670073</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -3260,7 +3281,7 @@
       </c>
       <c r="M42">
         <f t="shared" si="2"/>
-        <v>2.9069767441860465E-2</v>
+        <v>242.44777517680828</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
